--- a/Maize_Machakos/raw/Seasonal_strategy-Machakos-MAZ-0XFX.xlsx
+++ b/Maize_Machakos/raw/Seasonal_strategy-Machakos-MAZ-0XFX.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="16260" yWindow="-45" windowWidth="12495" windowHeight="12705" activeTab="1"/>
+    <workbookView xWindow="16260" yWindow="-48" windowWidth="12492" windowHeight="12708"/>
   </bookViews>
   <sheets>
     <sheet name="Seasonal_strategy_baseline" sheetId="5" r:id="rId1"/>
-    <sheet name="Seasonal_strategy_future" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
   <si>
     <t>!</t>
   </si>
@@ -179,9 +178,6 @@
     <t>DATE_OFFSET()</t>
   </si>
   <si>
-    <t>5PFA</t>
-  </si>
-  <si>
     <t>Simulation end date</t>
   </si>
   <si>
@@ -195,9 +191,6 @@
   </si>
   <si>
     <t>BASELINE</t>
-  </si>
-  <si>
-    <t>A2_ENDOFCENTURY</t>
   </si>
   <si>
     <t>Climate ID</t>
@@ -623,26 +616,24 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="12" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25">
+    <row r="1" spans="1:6" ht="16.8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -763,7 +754,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
         <v>39</v>
@@ -774,7 +765,7 @@
       <c r="C9"/>
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:6" ht="17.25">
+    <row r="10" spans="1:6" ht="16.8">
       <c r="A10" s="11" t="s">
         <v>0</v>
       </c>
@@ -786,7 +777,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="30">
+    <row r="11" spans="1:6" s="1" customFormat="1">
       <c r="A11" s="9" t="s">
         <v>0</v>
       </c>
@@ -866,7 +857,7 @@
       <c r="C17"/>
       <c r="D17"/>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="17.25">
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="16.8">
       <c r="A18" s="11" t="s">
         <v>0</v>
       </c>
@@ -876,7 +867,7 @@
       <c r="C18" s="14"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="1:8" ht="30">
+    <row r="19" spans="1:8">
       <c r="A19" s="9" t="s">
         <v>0</v>
       </c>
@@ -896,7 +887,7 @@
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
     </row>
@@ -911,10 +902,10 @@
         <v>48</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -948,7 +939,7 @@
       <c r="C24"/>
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:8" ht="17.25">
+    <row r="25" spans="1:8" ht="16.8">
       <c r="A25" s="11" t="s">
         <v>0</v>
       </c>
@@ -958,7 +949,7 @@
       <c r="C25" s="14"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="30">
+    <row r="26" spans="1:8" s="1" customFormat="1">
       <c r="A26" s="9" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1008,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="45">
+    <row r="30" spans="1:8" ht="43.2">
       <c r="A30" s="7" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1061,7 @@
     <row r="32" spans="1:8">
       <c r="D32"/>
     </row>
-    <row r="33" spans="1:6" ht="17.25">
+    <row r="33" spans="1:6" ht="16.8">
       <c r="A33" s="11" t="s">
         <v>0</v>
       </c>
@@ -1080,7 +1071,7 @@
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:6" ht="30">
+    <row r="34" spans="1:6">
       <c r="A34" s="9" t="s">
         <v>0</v>
       </c>
@@ -1100,535 +1091,16 @@
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="23" t="s">
         <v>55</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>56</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>18</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="17.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="21" t="str">
-        <f>CONCATENATE(D3,"-",D4,"-",D5,"-",D6,"-",D7,"-",D8)</f>
-        <v>MACHAKOS-1----A2_ENDOFCENTURY</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="4"/>
-      <c r="C9"/>
-      <c r="D9"/>
-    </row>
-    <row r="10" spans="1:6" ht="17.25">
-      <c r="A10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="30">
-      <c r="A11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="B17" s="4"/>
-      <c r="C17"/>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="17.25">
-      <c r="A18" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" ht="30">
-      <c r="A19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="4">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="B24" s="4"/>
-      <c r="C24"/>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="1:8" ht="17.25">
-      <c r="A25" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="13"/>
-    </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="30">
-      <c r="A26" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" s="1" customFormat="1">
-      <c r="A27" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" s="1" customFormat="1">
-      <c r="A28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" s="19" customFormat="1">
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" ht="45">
-      <c r="A30" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31">
-        <v>25</v>
-      </c>
-      <c r="H31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="1:6" ht="17.25">
-      <c r="A33" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:6" ht="30">
-      <c r="A34" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:6">

--- a/Maize_Machakos/raw/Seasonal_strategy-Machakos-MAZ-0XFX.xlsx
+++ b/Maize_Machakos/raw/Seasonal_strategy-Machakos-MAZ-0XFX.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Seasonal_strategy_baseline" sheetId="5" r:id="rId1"/>
+    <sheet name="Seasonal_strategy_baseline (2)" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="63">
   <si>
     <t>!</t>
   </si>
@@ -197,6 +198,12 @@
   </si>
   <si>
     <t>! Matches climate ID in weather data</t>
+  </si>
+  <si>
+    <t>AUTO_REPLICATE_EVENTS()</t>
+  </si>
+  <si>
+    <t>BASELINE2</t>
   </si>
 </sst>
 </file>
@@ -1127,4 +1134,537 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="12" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.8">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="21" t="str">
+        <f>CONCATENATE(D3,"-",D4,"-",D5,"-",D6,"-",D7,"-",D8)</f>
+        <v>MACHAKOS-1----BASELINE2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="4"/>
+      <c r="C9"/>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.8">
+      <c r="A10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1">
+      <c r="A11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" s="4"/>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="16.8">
+      <c r="A18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="4">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="4"/>
+      <c r="C24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.8">
+      <c r="A25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1">
+      <c r="A26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1">
+      <c r="A27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" s="19" customFormat="1">
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="43.2">
+      <c r="A30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31">
+        <v>25</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="1:6" ht="16.8">
+      <c r="A34" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>